--- a/Gold_Data.xlsx
+++ b/Gold_Data.xlsx
@@ -47,10 +47,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>US dollar</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
       <selection activeCell="Q18" sqref="Q18"/>
       <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
       <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -985,10 +985,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
